--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
@@ -49,16 +49,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>MCPS</t>
   </si>
   <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5481793489731795</v>
+        <v>0.5503052085088433</v>
       </c>
       <c r="C2">
-        <v>0.4790859254314591</v>
+        <v>0.4886606181410293</v>
       </c>
       <c r="D2">
-        <v>0.276626755657428</v>
+        <v>0.2774704849580504</v>
       </c>
       <c r="E2">
-        <v>0.5046281954538976</v>
+        <v>0.5042119912146743</v>
       </c>
       <c r="F2">
-        <v>0.2094514868255875</v>
+        <v>0.204659893930405</v>
       </c>
       <c r="G2">
-        <v>1.231181043069812</v>
+        <v>1.603199544091436</v>
       </c>
       <c r="H2">
-        <v>0.3256897608234833</v>
+        <v>0.3374161070866245</v>
       </c>
       <c r="I2">
-        <v>0.7399177510614712</v>
+        <v>0.7373838203362678</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9887723923810938</v>
+        <v>1.079198333557301</v>
       </c>
       <c r="C3">
-        <v>0.7072786275924954</v>
+        <v>0.7919165184019581</v>
       </c>
       <c r="D3">
-        <v>0.7979437414237519</v>
+        <v>0.9462847138771949</v>
       </c>
       <c r="E3">
-        <v>0.8070044709705118</v>
+        <v>0.8768404142712204</v>
       </c>
       <c r="F3">
-        <v>0.230040143075827</v>
+        <v>0.2146190916750427</v>
       </c>
       <c r="G3">
-        <v>4.831045015350133</v>
+        <v>9.083806463895094</v>
       </c>
       <c r="H3">
-        <v>0.4809074370143576</v>
+        <v>0.5087826440195381</v>
       </c>
       <c r="I3">
-        <v>1.164123595003073</v>
+        <v>1.318091975913325</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2.076413338813119</v>
+        <v>1.083028411345536</v>
       </c>
       <c r="C4">
-        <v>1.062741647377715</v>
+        <v>0.7862543021389905</v>
       </c>
       <c r="D4">
-        <v>2.92179065571967</v>
+        <v>0.9461939055796239</v>
       </c>
       <c r="E4">
-        <v>1.407133445496825</v>
+        <v>0.8736556637550156</v>
       </c>
       <c r="F4">
-        <v>0.2271334103153277</v>
+        <v>0.2135702169258318</v>
       </c>
       <c r="G4">
-        <v>17.18155113109569</v>
+        <v>9.333149134538456</v>
       </c>
       <c r="H4">
-        <v>0.59311371386088</v>
+        <v>0.512987340113082</v>
       </c>
       <c r="I4">
-        <v>1.962370537828998</v>
+        <v>1.317453329610488</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.181297666943298</v>
+        <v>2.495345276450561</v>
       </c>
       <c r="C5">
-        <v>0.7785327813309447</v>
+        <v>1.130679727975755</v>
       </c>
       <c r="D5">
-        <v>4.279073283425483</v>
+        <v>5.031498126775759</v>
       </c>
       <c r="E5">
-        <v>1.961709925368345</v>
+        <v>2.016353477917365</v>
       </c>
       <c r="F5">
-        <v>0.2167307735831896</v>
+        <v>0.2318507239125162</v>
       </c>
       <c r="G5">
-        <v>28.52175197364359</v>
+        <v>60.45560296373032</v>
       </c>
       <c r="H5">
-        <v>0.422630096190211</v>
+        <v>0.6256969417340055</v>
       </c>
       <c r="I5">
-        <v>1.667517795186577</v>
+        <v>2.27602030032414</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2.270159067680547</v>
+        <v>2.702922312761013</v>
       </c>
       <c r="C6">
-        <v>1.077162043425963</v>
+        <v>1.118478848376242</v>
       </c>
       <c r="D6">
-        <v>3.185384018437762</v>
+        <v>5.747116181481119</v>
       </c>
       <c r="E6">
-        <v>1.403154547091854</v>
+        <v>2.12626021633988</v>
       </c>
       <c r="F6">
-        <v>0.2262163746725701</v>
+        <v>0.2272641520176224</v>
       </c>
       <c r="G6">
-        <v>19.30213207393202</v>
+        <v>95.32630144233451</v>
       </c>
       <c r="H6">
-        <v>0.6092900835337212</v>
+        <v>0.6176466000415868</v>
       </c>
       <c r="I6">
-        <v>1.961703251817378</v>
+        <v>2.333429576847596</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.911523001025154</v>
+        <v>2.755643412989106</v>
       </c>
       <c r="C7">
-        <v>1.724534767917465</v>
+        <v>0.8954089310598445</v>
       </c>
       <c r="D7">
-        <v>3.131378683995252</v>
+        <v>8.141766035509315</v>
       </c>
       <c r="E7">
-        <v>1.075512260384921</v>
+        <v>2.954578955002659</v>
       </c>
       <c r="F7">
-        <v>0.2473799685957441</v>
+        <v>0.2142132579565945</v>
       </c>
       <c r="G7">
-        <v>16.77751691119271</v>
+        <v>91.61316232121442</v>
       </c>
       <c r="H7">
-        <v>0.7716224260636552</v>
+        <v>0.4645807951939485</v>
       </c>
       <c r="I7">
-        <v>3.967195806413428</v>
+        <v>1.542491248802852</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4.908057177504944</v>
+        <v>5.368216758212122</v>
       </c>
       <c r="C8">
-        <v>3.419170132641504</v>
+        <v>2.636670237322245</v>
       </c>
       <c r="D8">
-        <v>4.15045630497354</v>
+        <v>10.48253016564532</v>
       </c>
       <c r="E8">
-        <v>0.8456413922796764</v>
+        <v>1.952702477896313</v>
       </c>
       <c r="F8">
-        <v>0.8020544303732668</v>
+        <v>0.3608915821159588</v>
       </c>
       <c r="G8">
-        <v>20.19690933471792</v>
+        <v>117.4034880978905</v>
       </c>
       <c r="H8">
-        <v>1.834166410027589</v>
+        <v>1.564002712248638</v>
       </c>
       <c r="I8">
-        <v>6.405711154803409</v>
+        <v>4.784169763526802</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>7.052496579093455</v>
+        <v>9.071006213509772</v>
       </c>
       <c r="C9">
-        <v>4.670582886246688</v>
+        <v>5.228101056119636</v>
       </c>
       <c r="D9">
-        <v>7.315584842998915</v>
+        <v>14.86193326843941</v>
       </c>
       <c r="E9">
-        <v>1.037304273877334</v>
+        <v>1.638399634905442</v>
       </c>
       <c r="F9">
-        <v>0.3439727055020191</v>
+        <v>0.4819725439430791</v>
       </c>
       <c r="G9">
-        <v>35.21248014972411</v>
+        <v>162.0408518221075</v>
       </c>
       <c r="H9">
-        <v>1.722105153474369</v>
+        <v>2.314204418371688</v>
       </c>
       <c r="I9">
-        <v>9.088461841009249</v>
+        <v>10.61955443487323</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>7.637559217939003</v>
+        <v>10.01552436533117</v>
       </c>
       <c r="C10">
-        <v>5.192526543189018</v>
+        <v>6.008463077948747</v>
       </c>
       <c r="D10">
-        <v>7.625000038237881</v>
+        <v>16.03607627645508</v>
       </c>
       <c r="E10">
-        <v>0.9983556029691235</v>
+        <v>1.601121987378325</v>
       </c>
       <c r="F10">
-        <v>0.4344876329438819</v>
+        <v>0.4914064030280191</v>
       </c>
       <c r="G10">
-        <v>36.68000948544248</v>
+        <v>181.3513094128286</v>
       </c>
       <c r="H10">
-        <v>2.098723367856121</v>
+        <v>2.834512448583636</v>
       </c>
       <c r="I10">
-        <v>10.08438616088866</v>
+        <v>11.42099627612396</v>
       </c>
     </row>
   </sheetData>
